--- a/raw/1926election.xlsx
+++ b/raw/1926election.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE4A3FF-25B6-E34A-A1ED-372331159944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232193F8-B7A5-134B-9FA3-8C976FE48E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17080" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="1560" windowWidth="17080" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6341,7 +6341,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6648,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E971" sqref="E971"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="179" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -12907,7 +12907,7 @@
         <v>446</v>
       </c>
       <c r="C277" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D277" t="s">
         <v>15</v>
@@ -12930,7 +12930,7 @@
         <v>446</v>
       </c>
       <c r="C278" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D278" t="s">
         <v>19</v>
@@ -12953,7 +12953,7 @@
         <v>446</v>
       </c>
       <c r="C279" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D279" t="s">
         <v>19</v>
@@ -12976,7 +12976,7 @@
         <v>446</v>
       </c>
       <c r="C280" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D280" t="s">
         <v>22</v>
@@ -12999,7 +12999,7 @@
         <v>446</v>
       </c>
       <c r="C281" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D281" t="s">
         <v>22</v>
@@ -13022,7 +13022,7 @@
         <v>446</v>
       </c>
       <c r="C282" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D282" t="s">
         <v>25</v>
@@ -13045,7 +13045,7 @@
         <v>446</v>
       </c>
       <c r="C283" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D283" t="s">
         <v>25</v>
@@ -13068,7 +13068,7 @@
         <v>446</v>
       </c>
       <c r="C284" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D284" t="s">
         <v>34</v>
@@ -13091,7 +13091,7 @@
         <v>446</v>
       </c>
       <c r="C285" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D285" t="s">
         <v>34</v>
@@ -13114,7 +13114,7 @@
         <v>446</v>
       </c>
       <c r="C286" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D286" t="s">
         <v>33</v>
@@ -13137,7 +13137,7 @@
         <v>446</v>
       </c>
       <c r="C287" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D287" t="s">
         <v>33</v>
@@ -13160,7 +13160,7 @@
         <v>446</v>
       </c>
       <c r="C288" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D288" t="s">
         <v>35</v>
@@ -13183,7 +13183,7 @@
         <v>446</v>
       </c>
       <c r="C289" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D289" t="s">
         <v>35</v>
@@ -13206,7 +13206,7 @@
         <v>446</v>
       </c>
       <c r="C290" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D290" t="s">
         <v>29</v>
@@ -13229,7 +13229,7 @@
         <v>446</v>
       </c>
       <c r="C291" t="s">
-        <v>8</v>
+        <v>1611</v>
       </c>
       <c r="D291" t="s">
         <v>29</v>

--- a/raw/1926election.xlsx
+++ b/raw/1926election.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232193F8-B7A5-134B-9FA3-8C976FE48E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E98A37-AF87-9643-AFB4-7E662D795081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="1560" windowWidth="17080" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="500" windowWidth="17080" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6648,8 +6648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="179" workbookViewId="0">
-      <selection activeCell="E285" sqref="E285"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="179" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -8519,7 +8519,7 @@
         <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -8542,7 +8542,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -8565,7 +8565,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -8588,7 +8588,7 @@
         <v>84</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -8611,7 +8611,7 @@
         <v>85</v>
       </c>
       <c r="B88" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -8634,7 +8634,7 @@
         <v>86</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -8657,7 +8657,7 @@
         <v>87</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -8680,7 +8680,7 @@
         <v>88</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -8703,7 +8703,7 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -8726,7 +8726,7 @@
         <v>90</v>
       </c>
       <c r="B93" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -8749,7 +8749,7 @@
         <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -8772,7 +8772,7 @@
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -8795,7 +8795,7 @@
         <v>93</v>
       </c>
       <c r="B96" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -8818,7 +8818,7 @@
         <v>94</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>1629</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
